--- a/test.xlsx
+++ b/test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorrose/Projects/pptxSlides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE1CEE6-A592-694C-BD19-ADC732D8195C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C57D12-2E2E-0A4E-8CE9-C2BE6A311689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7820" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{F4E02A5D-CF77-C147-9C76-093E23F9D024}"/>
+    <workbookView xWindow="17780" yWindow="-28300" windowWidth="25600" windowHeight="28300" xr2:uid="{F4E02A5D-CF77-C147-9C76-093E23F9D024}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Headline</t>
   </si>
   <si>
-    <t>Bureau Agreements</t>
-  </si>
-  <si>
     <t>Dev</t>
   </si>
   <si>
@@ -451,13 +448,16 @@
     <t>Reporting Blindspots</t>
   </si>
   <si>
-    <t>Test 1</t>
-  </si>
-  <si>
     <t>Something New</t>
   </si>
   <si>
     <t>Something Very New</t>
+  </si>
+  <si>
+    <t>Incentivized Traffic</t>
+  </si>
+  <si>
+    <t>Ian is cool</t>
   </si>
 </sst>
 </file>
@@ -950,11 +950,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE460E4-88BF-B74C-B670-E163083CB686}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,19 +971,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>0</v>
@@ -991,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>2</v>
@@ -1014,7 +1015,7 @@
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1023,42 +1024,44 @@
         <v>3</v>
       </c>
       <c r="D2">
+        <f>C2</f>
         <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <f>C2</f>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1073,36 +1076,36 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1117,36 +1120,36 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1161,36 +1164,36 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1205,36 +1208,36 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1249,36 +1252,36 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1293,80 +1296,82 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f>B9</f>
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f>C9</f>
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1381,36 +1386,36 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1425,36 +1430,36 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1469,36 +1474,36 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1513,32 +1518,32 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1553,36 +1558,36 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1597,32 +1602,32 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1637,36 +1642,36 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1681,36 +1686,36 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1725,36 +1730,36 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1769,36 +1774,36 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1813,36 +1818,36 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1857,36 +1862,36 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1901,31 +1906,31 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -2006,6 +2011,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894A88CD-EA86-E641-865C-962AA5FD50ED}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2016,7 +2022,7 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2036,7 +2042,7 @@
     </row>
     <row r="12" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2051,31 +2057,31 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
